--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1891841.866234259</v>
+        <v>1967371.535899064</v>
       </c>
     </row>
     <row r="7">
@@ -659,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>295.565193376659</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>88.47998969135048</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.9286882276633229</v>
       </c>
       <c r="W4" t="n">
-        <v>42.15558353724209</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>125.5591100822752</v>
+        <v>328.2078330675562</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1066,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>131.8179123113441</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>99.90187484148903</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>40.32232414915294</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>134.8779527938087</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>139.072086797781</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>8.777525990012066</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.61524188852295</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1783,7 +1785,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>66.14085215535403</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>24.77826981700337</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>169.827716759979</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2135,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>194.8026695426854</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>144.4797853959761</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>140.567810896169</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>33.61380401919559</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2959,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>139.0551934695327</v>
       </c>
       <c r="G31" t="n">
-        <v>50.73865105455774</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>125.7541714875888</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>20.8179105793851</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3323,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>46.59134711494659</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>97.17311922650772</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,22 +3477,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3994,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
         <v>81.77913505274077</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>59.77945773664938</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4192,7 +4194,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1620.08070321196</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>1251.118186271549</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1251.118186271549</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1251.118186271549</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2376.569186901926</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2122.807401540017</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2122.807401540017</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2122.807401540017</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y2" t="n">
-        <v>1620.08070321196</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="3">
@@ -4410,16 +4412,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286579</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U4" t="n">
-        <v>471.4038777286579</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V4" t="n">
-        <v>471.4038777286579</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="W4" t="n">
-        <v>428.8224802162921</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>549.6273375774088</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1705.877315537684</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="C5" t="n">
-        <v>1336.914798597272</v>
+        <v>1214.415758416387</v>
       </c>
       <c r="D5" t="n">
-        <v>1336.914798597272</v>
+        <v>1214.415758416387</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="Y5" t="n">
-        <v>2092.477155601806</v>
+        <v>1583.378275356799</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4649,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>594.9795778313392</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1249.712458167646</v>
+        <v>1512.612574238669</v>
       </c>
       <c r="C8" t="n">
-        <v>1249.712458167646</v>
+        <v>1512.612574238669</v>
       </c>
       <c r="D8" t="n">
-        <v>891.446759560896</v>
+        <v>1154.346875631918</v>
       </c>
       <c r="E8" t="n">
-        <v>505.6585069626518</v>
+        <v>768.5586230336739</v>
       </c>
       <c r="F8" t="n">
-        <v>94.6726021730442</v>
+        <v>357.5727182440664</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>343.6493141826573</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4817,7 +4819,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1899.21241430279</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064343</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785274</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661917</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>409.0761618661917</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>719.2627963377356</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>719.2627963377356</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>719.2627963377356</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>719.2627963377356</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>719.2627963377356</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>719.2627963377356</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5118,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5260,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5373,10 +5375,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5473,13 +5475,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.499100520942</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.499100520942</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y16" t="n">
-        <v>1209.499100520942</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095316</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>3158.47475800178</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>3465.794891281741</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>3795.657518945774</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>4075.197584164471</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5701,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1327.373122315499</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1038.244483529058</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>783.5599953231707</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>494.1428252862101</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X19" t="n">
-        <v>266.1532743881928</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y19" t="n">
-        <v>266.1532743881928</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
     <row r="20">
@@ -5753,7 +5755,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5786,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>3607.068487499068</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>3607.068487499068</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>3607.068487499068</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4664.084199738852</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>4440.298784528358</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>4151.170145741916</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>3896.485657536029</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>3607.068487499068</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>3607.068487499068</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>3607.068487499068</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,13 +6001,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6014,22 +6016,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6075,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1041.981979867628</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>752.8533410811858</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>498.168852875299</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>208.7516828383384</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,16 +6217,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514082</v>
@@ -6233,22 +6235,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,16 +6293,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6321,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.135741824786</v>
+        <v>468.281933461499</v>
       </c>
       <c r="C28" t="n">
-        <v>964.135741824786</v>
+        <v>299.3457505335921</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>299.3457505335921</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>299.3457505335921</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>299.3457505335921</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>131.1704288534127</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6409,25 +6411,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>964.135741824786</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V28" t="n">
-        <v>964.135741824786</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W28" t="n">
-        <v>964.135741824786</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X28" t="n">
-        <v>964.135741824786</v>
+        <v>870.7229774352688</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.135741824786</v>
+        <v>649.9303982917387</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,34 +6460,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6546,16 +6548,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>579.3570368996734</v>
+        <v>4030.503968058059</v>
       </c>
       <c r="C31" t="n">
-        <v>410.4208539717665</v>
+        <v>3861.567785130152</v>
       </c>
       <c r="D31" t="n">
-        <v>410.4208539717665</v>
+        <v>3861.567785130152</v>
       </c>
       <c r="E31" t="n">
-        <v>410.4208539717665</v>
+        <v>3861.567785130152</v>
       </c>
       <c r="F31" t="n">
-        <v>410.4208539717665</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="V31" t="n">
-        <v>1209.787631771461</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.787631771461</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="X31" t="n">
-        <v>981.7980808734433</v>
+        <v>4432.945012031829</v>
       </c>
       <c r="Y31" t="n">
-        <v>761.0055017299131</v>
+        <v>4212.152432888299</v>
       </c>
     </row>
     <row r="32">
@@ -6674,61 +6676,61 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6743,7 +6745,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250802</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095315</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.474758001779</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945773</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.19758416447</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698577</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014291</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>247.3337308726216</v>
+        <v>1006.27269220504</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>837.3365092771336</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>687.2198698647978</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>539.3067762824047</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>392.4168287844943</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>224.2415071043149</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6889,19 +6891,19 @@
         <v>1187.92115703528</v>
       </c>
       <c r="U34" t="n">
-        <v>898.7925182488382</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V34" t="n">
-        <v>898.7925182488382</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W34" t="n">
-        <v>877.7643257444088</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X34" t="n">
-        <v>649.7747748463914</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y34" t="n">
-        <v>428.9821957028613</v>
+        <v>1187.92115703528</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6916,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6947,34 +6949,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7002,28 +7004,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7032,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>743.3431626812556</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="C37" t="n">
-        <v>574.4069797533488</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="D37" t="n">
-        <v>574.4069797533488</v>
+        <v>493.702859380097</v>
       </c>
       <c r="E37" t="n">
-        <v>574.4069797533488</v>
+        <v>345.7897657977039</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>345.7897657977039</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7099,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7123,22 +7125,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U37" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V37" t="n">
-        <v>964.1357418247858</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W37" t="n">
-        <v>964.1357418247858</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="X37" t="n">
-        <v>964.1357418247858</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="Y37" t="n">
-        <v>743.3431626812556</v>
+        <v>643.8194987924328</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,49 +7159,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2722.685770247096</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>2969.45089815356</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>3276.771031433521</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>4081.182609697672</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>4360.722674916369</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>4565.745155698579</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028587</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="41">
@@ -7388,67 +7390,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7485,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7628,43 +7630,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>157.600382103366</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>157.600382103366</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>157.600382103366</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>157.600382103366</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>157.600382103366</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>675.007103038344</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>385.5899330013834</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>157.600382103366</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>157.600382103366</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747115</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,28 +9245,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>283.6093329825491</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776745</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9413,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10355,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776745</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>73.53204524669889</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>14.7411341369031</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2167382934144</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>159.5688032336831</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6427782059279</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23943,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>51.71984429841024</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24175,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>3.118140440917813</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24382,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>77.0677756624132</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>8.047662122043363</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>115.3000243483405</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.4192454642763</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24847,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>6.365854553398577</v>
       </c>
       <c r="G31" t="n">
-        <v>115.7549174088198</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -25075,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>23.15965687994733</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25129,19 +25131,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>265.7050877572059</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>98.82970090798466</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>69.32044923686986</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25597,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>78.25505057341479</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25834,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>106.7141107267282</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>881650.7453192546</v>
+        <v>881650.7453192545</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>881650.7453192546</v>
+        <v>881650.7453192545</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192545</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="F2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="G2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="H2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="I2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="J2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="K2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>508337.7776590214</v>
+      </c>
+      <c r="M2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="I2" t="n">
-        <v>508337.7776590214</v>
-      </c>
-      <c r="J2" t="n">
-        <v>508337.7776590214</v>
-      </c>
-      <c r="K2" t="n">
-        <v>508337.7776590215</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="O2" t="n">
         <v>508337.7776590216</v>
-      </c>
-      <c r="M2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="N2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="O2" t="n">
-        <v>508337.7776590214</v>
       </c>
       <c r="P2" t="n">
         <v>508337.7776590216</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.434074986013002e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26448,7 +26450,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
@@ -26473,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,31 +26484,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26522,46 +26524,46 @@
         <v>-304782.6746526939</v>
       </c>
       <c r="C6" t="n">
-        <v>285185.2045618504</v>
+        <v>285185.2045618506</v>
       </c>
       <c r="D6" t="n">
-        <v>285185.2045618509</v>
+        <v>285185.2045618503</v>
       </c>
       <c r="E6" t="n">
-        <v>-130984.1923534617</v>
+        <v>-130984.1923534618</v>
       </c>
       <c r="F6" t="n">
         <v>394175.8441234343</v>
       </c>
       <c r="G6" t="n">
-        <v>394175.8441234344</v>
+        <v>394175.8441234342</v>
       </c>
       <c r="H6" t="n">
         <v>394175.8441234343</v>
       </c>
       <c r="I6" t="n">
-        <v>394175.8441234341</v>
+        <v>394175.8441234343</v>
       </c>
       <c r="J6" t="n">
-        <v>217752.6249308411</v>
+        <v>217752.6249308413</v>
       </c>
       <c r="K6" t="n">
         <v>394175.8441234342</v>
       </c>
       <c r="L6" t="n">
-        <v>394175.8441234342</v>
+        <v>394175.844123434</v>
       </c>
       <c r="M6" t="n">
-        <v>259374.828889597</v>
+        <v>259374.8288895971</v>
       </c>
       <c r="N6" t="n">
-        <v>394175.8441234342</v>
+        <v>394175.8441234344</v>
       </c>
       <c r="O6" t="n">
-        <v>394175.844123434</v>
+        <v>394175.8441234343</v>
       </c>
       <c r="P6" t="n">
-        <v>394175.8441234342</v>
+        <v>394175.8441234343</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,13 +26752,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26765,16 +26767,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>111.3108523650525</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>127.9683306663073</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>251.2089550961647</v>
       </c>
       <c r="W4" t="n">
-        <v>244.3674147993489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>256.3712599899866</v>
+        <v>53.7225370047056</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>14.84727966881377</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>125.1332306165952</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>373.461845871642</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>189.0448199705485</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>6.348961225150219</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>20.3452239649022</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29323,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29451,7 +29453,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-4.336205468765305e-12</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31516,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35504,7 +35506,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35741,13 +35743,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>594.0337100330154</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36133,7 +36135,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36215,13 +36217,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36689,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36926,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37069,7 +37071,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>224.1074838346381</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1967371.535899064</v>
+        <v>1960354.521007353</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>269.8718134630598</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -712,7 +712,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>88.47998969135048</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,22 +861,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>33.68688488030537</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9286882276633229</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>328.2078330675562</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>29.91994600203441</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>131.8179123113441</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>134.8779527938087</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>266.3191370776123</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.777525990012066</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274077</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>93.87916681139878</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>271.7818641996879</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1782,7 +1782,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>196.9658507212239</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>66.14085215535403</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>24.77826981700337</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>109.6778012403077</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>194.8026695426854</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>33.61380401919559</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>139.0551934695327</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>131.6255343941015</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>125.7541714875888</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>26.12759070766478</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>97.17311922650772</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -3474,7 +3474,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>104.7919727697734</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>143.2925104849745</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>201.171051660668</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>879.7184058617563</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>493.9301532635121</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2376.569186901926</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2122.807401540017</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2122.807401540017</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2122.807401540017</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1749.341643278937</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>549.6273375774088</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="C4" t="n">
-        <v>380.6911546495019</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="D4" t="n">
-        <v>380.6911546495019</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="E4" t="n">
-        <v>380.6911546495019</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942404</v>
+        <v>694.1018277616815</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942404</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="V4" t="n">
-        <v>549.6273375774088</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="W4" t="n">
-        <v>549.6273375774088</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="X4" t="n">
-        <v>549.6273375774088</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="Y4" t="n">
-        <v>549.6273375774088</v>
+        <v>404.9282174162494</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1583.378275356799</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C5" t="n">
-        <v>1214.415758416387</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D5" t="n">
-        <v>1214.415758416387</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2666.9269233394</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2490.74943565357</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2272.114768625633</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2272.114768625633</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>1941.051881282062</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>1941.051881282062</v>
       </c>
       <c r="X5" t="n">
-        <v>1583.378275356799</v>
+        <v>1941.051881282062</v>
       </c>
       <c r="Y5" t="n">
-        <v>1583.378275356799</v>
+        <v>1550.91254930625</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.6911546495019</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C7" t="n">
-        <v>380.6911546495019</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>380.6911546495019</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>380.6911546495019</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>594.9795778313392</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>380.6911546495019</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>380.6911546495019</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>380.6911546495019</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>380.6911546495019</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>380.6911546495019</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>380.6911546495019</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.6911546495019</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1512.612574238669</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1512.612574238669</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.346875631918</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>768.5586230336739</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>357.5727182440664</v>
+        <v>67.86638588177352</v>
       </c>
       <c r="G8" t="n">
-        <v>343.6493141826573</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278602</v>
+        <v>2373.111172177389</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.351746278602</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.21241430279</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>325.6879402326642</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>156.7517573047573</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>719.2627963377356</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>719.2627963377356</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>719.2627963377356</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>719.2627963377356</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>719.2627963377356</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>719.2627963377356</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>429.8456263007749</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.8560754027576</v>
+        <v>507.336405062904</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>192.044532683921</v>
       </c>
       <c r="C13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570736</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>192.044532683921</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>192.044532683921</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5305,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790661</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2302.23751609332</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1029.666285013068</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C16" t="n">
-        <v>860.7301020851612</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D16" t="n">
-        <v>710.6134626728254</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1100.040855704541</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>1100.040855704541</v>
       </c>
       <c r="X16" t="n">
-        <v>1432.107328986838</v>
+        <v>1100.040855704541</v>
       </c>
       <c r="Y16" t="n">
-        <v>1211.314749843308</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>552.3735683412849</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C19" t="n">
-        <v>552.3735683412849</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D19" t="n">
-        <v>552.3735683412849</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>552.3735683412849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5706,19 +5706,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1388.13061273941</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>1133.446124533523</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>844.0289544965622</v>
       </c>
       <c r="X19" t="n">
-        <v>954.8146123150548</v>
+        <v>616.0394035985448</v>
       </c>
       <c r="Y19" t="n">
-        <v>734.0220331715246</v>
+        <v>395.2468244550147</v>
       </c>
     </row>
     <row r="20">
@@ -5752,7 +5752,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514085</v>
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3607.068487499068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3607.068487499068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3607.068487499068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4664.084199738852</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>4440.298784528358</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>4151.170145741916</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>3896.485657536029</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>3607.068487499068</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>3607.068487499068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>3607.068487499068</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6174,19 +6174,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
         <v>97.21709146028584</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
@@ -6223,7 +6223,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
@@ -6235,22 +6235,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,16 +6293,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>468.281933461499</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>299.3457505335921</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>299.3457505335921</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>299.3457505335921</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>299.3457505335921</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>131.1704288534127</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1098.712528333286</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>1098.712528333286</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>870.7229774352688</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>649.9303982917387</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6484,10 +6484,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6548,16 +6548,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4030.503968058059</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="C31" t="n">
-        <v>3861.567785130152</v>
+        <v>675.0918571994922</v>
       </c>
       <c r="D31" t="n">
-        <v>3861.567785130152</v>
+        <v>524.9752177871565</v>
       </c>
       <c r="E31" t="n">
-        <v>3861.567785130152</v>
+        <v>377.0621242047633</v>
       </c>
       <c r="F31" t="n">
-        <v>3721.107993746786</v>
+        <v>230.172176706853</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929846</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>4660.934562929846</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>4660.934562929846</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V31" t="n">
-        <v>4660.934562929846</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W31" t="n">
-        <v>4660.934562929846</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="X31" t="n">
-        <v>4432.945012031829</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="Y31" t="n">
-        <v>4212.152432888299</v>
+        <v>844.0280401273991</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1006.27269220504</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C34" t="n">
-        <v>837.3365092771336</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D34" t="n">
-        <v>687.2198698647978</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>539.3067762824047</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>392.4168287844943</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>224.2415071043149</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1187.92115703528</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>1187.92115703528</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>1187.92115703528</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>1187.92115703528</v>
+        <v>415.509052552801</v>
       </c>
       <c r="Y34" t="n">
-        <v>1187.92115703528</v>
+        <v>415.509052552801</v>
       </c>
     </row>
     <row r="35">
@@ -6916,16 +6916,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6934,49 +6934,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>643.8194987924328</v>
+        <v>879.5496456007323</v>
       </c>
       <c r="C37" t="n">
-        <v>643.8194987924328</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D37" t="n">
-        <v>493.702859380097</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E37" t="n">
-        <v>345.7897657977039</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F37" t="n">
-        <v>345.7897657977039</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
         <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V37" t="n">
-        <v>933.2366688293934</v>
+        <v>1281.990689574502</v>
       </c>
       <c r="W37" t="n">
-        <v>643.8194987924328</v>
+        <v>1281.990689574502</v>
       </c>
       <c r="X37" t="n">
-        <v>643.8194987924328</v>
+        <v>1281.990689574502</v>
       </c>
       <c r="Y37" t="n">
-        <v>643.8194987924328</v>
+        <v>1061.198110430972</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,37 +7168,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1354.17636097712</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1354.17636097712</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1354.17636097712</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1064.759190940159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>836.769640042142</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515098</v>
@@ -7663,37 +7663,37 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7833,10 +7833,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
         <v>869.3083006011506</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747115</v>
+        <v>90.64146763747218</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>29.47535963978319</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>283.6093329825491</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>73.36765428722906</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>14.7411341369031</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583932</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>55.17179260260414</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>159.5688032336831</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>120.6427782059279</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>176.5595511582697</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>3.118140440917813</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>115.3000243483405</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642763</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>6.365854553398577</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>34.86803406927612</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>23.15965687994733</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>199.5820646813724</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>69.32044923686986</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25371,16 +25371,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>147.3456705540546</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>78.25505057341479</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,13 +25839,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>50.96659166315996</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>881650.7453192546</v>
+        <v>881650.7453192545</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>881650.7453192545</v>
+        <v>881650.7453192547</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>881650.7453192545</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>881650.7453192545</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>881650.7453192546</v>
+        <v>881650.7453192547</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>881650.7453192546</v>
+        <v>881650.7453192547</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>881650.7453192546</v>
+        <v>881650.7453192547</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117848</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="G2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="H2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="I2" t="n">
         <v>508337.7776590216</v>
@@ -26340,22 +26340,22 @@
         <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="L2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="M2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="N2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="O2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="P2" t="n">
         <v>508337.7776590214</v>
-      </c>
-      <c r="M2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="N2" t="n">
-        <v>508337.7776590218</v>
-      </c>
-      <c r="O2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="P2" t="n">
-        <v>508337.7776590216</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.434074986013002e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
@@ -26447,7 +26447,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26484,34 +26484,34 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-304782.6746526939</v>
+        <v>-304782.6746526941</v>
       </c>
       <c r="C6" t="n">
-        <v>285185.2045618506</v>
+        <v>285185.2045618509</v>
       </c>
       <c r="D6" t="n">
-        <v>285185.2045618503</v>
+        <v>285185.2045618505</v>
       </c>
       <c r="E6" t="n">
-        <v>-130984.1923534618</v>
+        <v>-131958.7836131835</v>
       </c>
       <c r="F6" t="n">
-        <v>394175.8441234343</v>
+        <v>393201.2528637128</v>
       </c>
       <c r="G6" t="n">
-        <v>394175.8441234342</v>
+        <v>393201.2528637126</v>
       </c>
       <c r="H6" t="n">
-        <v>394175.8441234343</v>
+        <v>393201.2528637124</v>
       </c>
       <c r="I6" t="n">
-        <v>394175.8441234343</v>
+        <v>393201.2528637126</v>
       </c>
       <c r="J6" t="n">
-        <v>217752.6249308413</v>
+        <v>216778.0336711196</v>
       </c>
       <c r="K6" t="n">
-        <v>394175.8441234342</v>
+        <v>393201.2528637126</v>
       </c>
       <c r="L6" t="n">
-        <v>394175.844123434</v>
+        <v>393201.2528637125</v>
       </c>
       <c r="M6" t="n">
-        <v>259374.8288895971</v>
+        <v>258400.2376298756</v>
       </c>
       <c r="N6" t="n">
-        <v>394175.8441234344</v>
+        <v>393201.2528637126</v>
       </c>
       <c r="O6" t="n">
-        <v>394175.8441234343</v>
+        <v>393201.2528637125</v>
       </c>
       <c r="P6" t="n">
-        <v>394175.8441234343</v>
+        <v>393201.2528637124</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="O3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>137.0042322786516</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>127.9683306663073</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>191.3482205777789</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>251.2089550961647</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>53.7225370047056</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>24.5584565727773</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1681237664919</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>14.84727966881377</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>189.0448199705485</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>82.92183163980076</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>46.8347852886634</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>20.3452239649022</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28538,7 +28538,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-2.478715391494445e-12</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29453,7 +29453,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-4.336205468765305e-12</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>236.5687745713078</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35971,22 +35971,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>594.0337100330154</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>682.9598737318699</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1960354.521007353</v>
+        <v>1965293.783856385</v>
       </c>
     </row>
     <row r="7">
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>269.8718134630598</v>
+        <v>260.735846629689</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>33.68688488030537</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>374.5868517518655</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -916,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>29.91994600203441</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.66385641544537</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481175</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>266.3191370776123</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>354.752216257426</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>101.780687729549</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>132.997194893274</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>93.87916681139878</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>145.2833756831822</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>196.9658507212239</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>213.1210622920655</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>109.6778012403077</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>195.5559609429028</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2769,7 +2769,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>94.16481274941241</v>
       </c>
       <c r="G31" t="n">
-        <v>131.6255343941015</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>26.12759070766478</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>104.7919727697734</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>169.7438101404423</v>
       </c>
     </row>
     <row r="38">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,7 +3957,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>201.171051660668</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1606.946621408918</v>
+        <v>2001.758776122685</v>
       </c>
       <c r="C2" t="n">
-        <v>1237.984104468507</v>
+        <v>1632.796259182274</v>
       </c>
       <c r="D2" t="n">
-        <v>879.7184058617563</v>
+        <v>1274.530560575523</v>
       </c>
       <c r="E2" t="n">
-        <v>493.9301532635121</v>
+        <v>888.7423079772789</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>404.9282174162494</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>404.9282174162494</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>404.9282174162494</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>404.9282174162494</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>404.9282174162494</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545818</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>694.1018277616815</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>404.9282174162494</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>404.9282174162494</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>404.9282174162494</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>404.9282174162494</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.9282174162494</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1164.312709242129</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C5" t="n">
-        <v>1164.312709242129</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>1330.938043216202</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>1330.938043216202</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2666.9269233394</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2490.74943565357</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2272.114768625633</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2272.114768625633</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1941.051881282062</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1941.051881282062</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1941.051881282062</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1550.91254930625</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4649,40 +4649,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.8624625746712</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4767,10 +4767,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177352</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036443</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036443</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2373.111172177389</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1999.645413916309</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y8" t="n">
-        <v>1609.506081940498</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326642</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047573</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036443</v>
+        <v>188.2835827226615</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.336405062904</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5041,19 +5041,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>192.044532683921</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247858</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V13" t="n">
-        <v>709.4512536188989</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W13" t="n">
-        <v>420.0340835819383</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="X13" t="n">
-        <v>192.044532683921</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.044532683921</v>
+        <v>562.7003690904323</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5299,31 +5299,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126628</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790661</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2302.23751609332</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>879.2482765610114</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C16" t="n">
-        <v>710.3120936331045</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>1100.040855704541</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>1100.040855704541</v>
+        <v>1172.567366824712</v>
       </c>
       <c r="X16" t="n">
-        <v>1100.040855704541</v>
+        <v>944.5778159266949</v>
       </c>
       <c r="Y16" t="n">
-        <v>879.2482765610114</v>
+        <v>723.7852367831648</v>
       </c>
     </row>
     <row r="17">
@@ -5494,13 +5494,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
         <v>904.3190116155888</v>
@@ -5512,49 +5512,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>841.8631140141288</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N18" t="n">
-        <v>1517.99338900868</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>395.2468244550147</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5706,19 +5706,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1388.13061273941</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1133.446124533523</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>844.0289544965622</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X19" t="n">
-        <v>616.0394035985448</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y19" t="n">
-        <v>395.2468244550147</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,25 +5752,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514082</v>
@@ -6007,10 +6007,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6177,16 +6177,16 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
         <v>97.21709146028584</v>
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,10 +6214,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6238,16 +6238,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6417,13 +6417,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
         <v>97.21709146028584</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>844.0280401273991</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="C31" t="n">
-        <v>675.0918571994922</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="D31" t="n">
-        <v>524.9752177871565</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="E31" t="n">
-        <v>377.0621242047633</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="F31" t="n">
-        <v>230.172176706853</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.712528333286</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V31" t="n">
-        <v>844.0280401273991</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W31" t="n">
-        <v>844.0280401273991</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X31" t="n">
-        <v>844.0280401273991</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="Y31" t="n">
-        <v>844.0280401273991</v>
+        <v>192.3330639344398</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805474</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6949,16 +6949,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>879.5496456007323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1281.990689574502</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W37" t="n">
-        <v>1281.990689574502</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X37" t="n">
-        <v>1281.990689574502</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y37" t="n">
-        <v>1061.198110430972</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7186,16 +7186,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7402,10 +7402,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028562</v>
@@ -7414,25 +7414,25 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>782.7991340754431</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>493.3819640384826</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,67 +7627,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7839,7 +7839,7 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
         <v>614.6238123952637</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747218</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>29.47535963978319</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9251,10 +9251,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>91.23759968302113</v>
       </c>
       <c r="N18" t="n">
-        <v>349.7653003338571</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>73.36765428722906</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>80.42627970585499</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583932</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>55.17179260260414</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>73.40193604452548</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23946,13 +23946,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>176.5595511582697</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>90.96703739368823</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24840,19 +24840,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>51.25623527351884</v>
       </c>
       <c r="G31" t="n">
-        <v>34.86803406927612</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>199.5820646813724</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>147.3456705540546</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>48.8408432116525</v>
       </c>
     </row>
     <row r="38">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>50.96659166315996</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>881650.7453192545</v>
+        <v>881650.7453192547</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117841</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117848</v>
       </c>
-      <c r="D2" t="n">
-        <v>533677.1504117844</v>
-      </c>
       <c r="E2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="F2" t="n">
         <v>508337.7776590218</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="H2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="I2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="J2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="K2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="L2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="N2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590216</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
@@ -26441,13 +26441,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26499,7 +26499,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-304782.6746526941</v>
+        <v>-304782.674652694</v>
       </c>
       <c r="C6" t="n">
+        <v>285185.2045618502</v>
+      </c>
+      <c r="D6" t="n">
         <v>285185.2045618509</v>
       </c>
-      <c r="D6" t="n">
-        <v>285185.2045618505</v>
-      </c>
       <c r="E6" t="n">
-        <v>-131958.7836131835</v>
+        <v>-131081.6514794341</v>
       </c>
       <c r="F6" t="n">
-        <v>393201.2528637128</v>
+        <v>394078.3849974622</v>
       </c>
       <c r="G6" t="n">
-        <v>393201.2528637126</v>
+        <v>394078.3849974622</v>
       </c>
       <c r="H6" t="n">
-        <v>393201.2528637124</v>
+        <v>394078.3849974622</v>
       </c>
       <c r="I6" t="n">
-        <v>393201.2528637126</v>
+        <v>394078.3849974622</v>
       </c>
       <c r="J6" t="n">
-        <v>216778.0336711196</v>
+        <v>217655.1658048692</v>
       </c>
       <c r="K6" t="n">
-        <v>393201.2528637126</v>
+        <v>394078.3849974623</v>
       </c>
       <c r="L6" t="n">
-        <v>393201.2528637125</v>
+        <v>394078.3849974621</v>
       </c>
       <c r="M6" t="n">
-        <v>258400.2376298756</v>
+        <v>259277.3697636249</v>
       </c>
       <c r="N6" t="n">
-        <v>393201.2528637126</v>
+        <v>394078.3849974621</v>
       </c>
       <c r="O6" t="n">
-        <v>393201.2528637125</v>
+        <v>394078.3849974621</v>
       </c>
       <c r="P6" t="n">
-        <v>393201.2528637124</v>
+        <v>394078.3849974621</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>137.0042322786516</v>
+        <v>146.1401991120224</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27545,16 +27545,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>191.3482205777789</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>32.28919398984596</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>24.5584565727773</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1681237664919</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>82.92183163980076</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>14.97888442104301</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>46.8347852886634</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>13.43676775329513</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28538,7 +28538,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-2.478715391494445e-12</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32168,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535713</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.129440800466</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>236.5687745713078</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35971,22 +35971,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>401.6619767334874</v>
       </c>
       <c r="N18" t="n">
-        <v>682.9598737318699</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.689756130333</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36688,10 +36688,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
